--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41EE2990-D7D5-4010-8793-C80383C11759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53683CA2-6EB6-4B52-825B-C1DE39A1023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>test1</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>images/neuromatch.png</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -413,33 +422,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA51111-2732-4884-A79D-9C22C0114BA4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -450,33 +470,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53683CA2-6EB6-4B52-825B-C1DE39A1023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04ADFB-A8FE-4352-BC40-2D408D001716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
     <sheet name="2022" sheetId="2" r:id="rId2"/>
+    <sheet name="2021" sheetId="3" r:id="rId3"/>
+    <sheet name="2020" sheetId="4" r:id="rId4"/>
+    <sheet name="2019" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,43 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test1desc</t>
-  </si>
-  <si>
-    <t>test2desc</t>
-  </si>
-  <si>
-    <t>images/bmai1.jpg</t>
-  </si>
-  <si>
-    <t>assets/isarticle1.png</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test3desc</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test4desc</t>
-  </si>
-  <si>
-    <t>images/nma_empathy.jpg</t>
-  </si>
-  <si>
-    <t>images/neuromatch.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>title</t>
   </si>
@@ -71,6 +38,105 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>I'll be auditing the CSE486 M20 course on 'Intro to Neural and Cognitive Modeling' of Prof. Bapi Raju at IIIT Hyderabad.</t>
+  </si>
+  <si>
+    <t>“How Spike based Neuromorphic Computing can help monitor Social Distancing Efficiently”. IEEE Brain Sponsored Conference on Computational Neuroscience; Presenting poster of an application of my research on energy efficient object detection. (Was the only other person from India)</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2020_paper.JPG</t>
+  </si>
+  <si>
+    <t>Article published in Intel A.I. Student Ambassadors Publication!</t>
+  </si>
+  <si>
+    <t>One of my first articles on Intel BrainIAK has been published! Follow this link to read it for free! https://link.medium.com/EQnuldxKp4</t>
+  </si>
+  <si>
+    <t>2020_article.png</t>
+  </si>
+  <si>
+    <t>Worked on Social Cognition aspect of the Human Connectome Project under Dr. Marlene Cohen (CMU and University of Pittsburgh) and Dr. Laura Mikula (York University)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>2020_nma_empathy.jpg</t>
+  </si>
+  <si>
+    <t>Selected in Facebook Reality Labs Sponsored Neuromatch Academy in the Interactive Track! Yay!</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>2020_neuromatch.png</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>2020_bmai5.jpg</t>
+  </si>
+  <si>
+    <t>Attended the International Conference on Human-Computer Interaction, IIIT Allahabad</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>2020_cpczurich.jpg</t>
+  </si>
+  <si>
+    <t>2019_iiita.jpg</t>
+  </si>
+  <si>
+    <t>Attended Computational Neuroscience Lab Meet, IIT Madras</t>
+  </si>
+  <si>
+    <t>Attended Computational Psychiatry Course 2020 Zurich</t>
+  </si>
+  <si>
+    <t>2020_cnslmeet.jpg</t>
+  </si>
+  <si>
+    <t>Neuromatch Academy : Done and Dusted</t>
+  </si>
+  <si>
+    <t>2020_neuromatchdone.jpg</t>
+  </si>
+  <si>
+    <t>QIP CEP Brain Mapping and A.I. Workshop</t>
+  </si>
+  <si>
+    <t>2020_bmai2.jpg</t>
+  </si>
+  <si>
+    <t>Presenting my views at the Brain Mapping and A.I. Workshop at IIT Delhi</t>
+  </si>
+  <si>
+    <t>Interactions with the Cognitive Computing Group, IIIT A: Performing EEG Experiment</t>
+  </si>
+  <si>
+    <t>2019_ccc.jpg</t>
+  </si>
+  <si>
+    <t>Started working in Barclays as a Quantitative Analyst, on behavioural models</t>
+  </si>
+  <si>
+    <t>Got into the Cognitive Science Programme at IIT Delhi! (Yay! After not been able to go across interviews at IIT K and IIT Gn</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
 </sst>
 </file>
@@ -422,45 +488,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA51111-2732-4884-A79D-9C22C0114BA4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -470,45 +514,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A28F8-0EC1-4531-B3AB-74D3EE15D1E4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65F8678-A69E-4653-B67D-416FDDF096E4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E7513-6852-4547-BF1B-494E7339ADC7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04ADFB-A8FE-4352-BC40-2D408D001716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF6F9C-1C0A-473E-9E5B-DB82D5A0ACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>September</t>
+  </si>
+  <si>
+    <t>Started working on LLMs at Barclays</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Did Internship at RTG Computational Cognition, Germany</t>
   </si>
 </sst>
 </file>
@@ -488,13 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA51111-2732-4884-A79D-9C22C0114BA4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -505,6 +517,14 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -551,13 +571,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A28F8-0EC1-4531-B3AB-74D3EE15D1E4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -568,6 +591,14 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65F8678-A69E-4653-B67D-416FDDF096E4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF6F9C-1C0A-473E-9E5B-DB82D5A0ACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FF479-DD1E-4586-884A-48FC23B43A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Started working in Barclays as a Quantitative Analyst, on behavioural models</t>
   </si>
   <si>
-    <t>Got into the Cognitive Science Programme at IIT Delhi! (Yay! After not been able to go across interviews at IIT K and IIT Gn</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Did Internship at RTG Computational Cognition, Germany</t>
+  </si>
+  <si>
+    <t>Got into the Cognitive Science Programme at IIT Delhi! Yay! (After not been able to go across interviews at IIT K and IIT Gn)</t>
   </si>
 </sst>
 </file>
@@ -521,10 +521,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A28F8-0EC1-4531-B3AB-74D3EE15D1E4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +595,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65F8678-A69E-4653-B67D-416FDDF096E4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,10 +632,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FF479-DD1E-4586-884A-48FC23B43A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E72475-96A4-4872-86BD-0180F1D4D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2021" sheetId="3" r:id="rId3"/>
-    <sheet name="2020" sheetId="4" r:id="rId4"/>
-    <sheet name="2019" sheetId="5" r:id="rId5"/>
+    <sheet name="2024" sheetId="6" r:id="rId1"/>
+    <sheet name="2023" sheetId="1" r:id="rId2"/>
+    <sheet name="2022" sheetId="2" r:id="rId3"/>
+    <sheet name="2021" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="4" r:id="rId5"/>
+    <sheet name="2019" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>title</t>
   </si>
@@ -136,16 +137,64 @@
     <t>September</t>
   </si>
   <si>
-    <t>Started working on LLMs at Barclays</t>
-  </si>
-  <si>
     <t>October</t>
   </si>
   <si>
-    <t>Did Internship at RTG Computational Cognition, Germany</t>
-  </si>
-  <si>
     <t>Got into the Cognitive Science Programme at IIT Delhi! Yay! (After not been able to go across interviews at IIT K and IIT Gn)</t>
+  </si>
+  <si>
+    <t>Did Internship at RTG Computational Cognition, Osnabruck, Germany. Advised by Dr. Viviane Clay (Dr. Peter König’s Group and Research Scientist at Numenta).</t>
+  </si>
+  <si>
+    <t>2021_deeprl.png</t>
+  </si>
+  <si>
+    <t>2021_iics_gift.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FENS and IBRO-PERC support to attend Interdisciplinary Computational Cognitive Science Spring School at Tübingen, Germany and Won the Pub Quiz! Yay!
+</t>
+  </si>
+  <si>
+    <t>Do DNNs model neural representations in visual cognition? - Course Project with Prof. Sumeet Agarwal (Dept. of EE and School of AI, IIT Delhi)</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>2021_dnns.png</t>
+  </si>
+  <si>
+    <t>Started working on LLMs and Generative AI at Barclays</t>
+  </si>
+  <si>
+    <t>2022_cosad.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented work - 'Diagnosing Covid-19 using AI based Medical Image Analysis'. In 
+Proceedings of the 5th Joint International Conference on Data Science &amp; Management of Data (9th ACM IKDD 
+CODS and 27th COMAD) (CODS-COMAD '22). https://doi.org/10.1145/3493700.3493730 </t>
+  </si>
+  <si>
+    <t>Presented work - 'GenEmo-Net: Generalizable Emotion Recognition Using Brain Functional Connections Based Neural Network'. Intelligent Human Computer Interaction 2023, South Korea. https://doi.org/10.1007/978-3-031-53827-8_9</t>
+  </si>
+  <si>
+    <t>Presented work - 'Emotion Recognition Using Phase-Locking-Value Based Functional Brain Connections Within-Hemisphere and Cross-Hemisphere'. At WACIIS 2023. https://doi.org/10.1007/978-3-031-53827-8_12</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Presented - 'ToM (Theory of Mind)-ML: Machine Learning predicts Mentalization'. Bernstein Conference 2021. Also Presented at Computational Cognition Workshop 2021 (Osnabrück, Germany)</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Selected in Undergraduate Research Initiative (UGRI) at IIT Jodhpur, and worked on Efficient Pedestrian Detection and Edge Computing</t>
   </si>
 </sst>
 </file>
@@ -181,8 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,17 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA51111-2732-4884-A79D-9C22C0114BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89999D4-6282-47E7-8C6A-FDFFE866297F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -521,10 +570,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -533,11 +582,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA51111-2732-4884-A79D-9C22C0114BA4}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,17 +658,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A28F8-0EC1-4531-B3AB-74D3EE15D1E4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,18 +705,51 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65F8678-A69E-4653-B67D-416FDDF096E4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +770,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -750,12 +888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E7513-6852-4547-BF1B-494E7339ADC7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,6 +934,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E72475-96A4-4872-86BD-0180F1D4D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E83E74-8D01-4664-AD03-64EC46E08B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>title</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Selected in Undergraduate Research Initiative (UGRI) at IIT Jodhpur, and worked on Efficient Pedestrian Detection and Edge Computing</t>
+  </si>
+  <si>
+    <t>2024_ihci.jpg</t>
+  </si>
+  <si>
+    <t>2023_waciis.jpg</t>
+  </si>
+  <si>
+    <t>Completed my Master's thesis at the Learning and Information in Networked Complex Systems (LINCS) Group, IIT Delhi</t>
   </si>
 </sst>
 </file>
@@ -551,11 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89999D4-6282-47E7-8C6A-FDFFE866297F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -574,6 +586,9 @@
       </c>
       <c r="B2" t="s">
         <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +601,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,6 +635,9 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -628,10 +646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,6 +685,14 @@
       </c>
       <c r="C3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E7513-6852-4547-BF1B-494E7339ADC7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E83E74-8D01-4664-AD03-64EC46E08B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A713E53-5F8F-44BD-86C9-F865E31F045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>title</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Completed my Master's thesis at the Learning and Information in Networked Complex Systems (LINCS) Group, IIT Delhi</t>
+  </si>
+  <si>
+    <t>Selected for the Technology Innovation Hub - Cobotics Fellowship!</t>
+  </si>
+  <si>
+    <t>ihfc.PNG</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89999D4-6282-47E7-8C6A-FDFFE866297F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -646,10 +652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,6 +699,17 @@
       </c>
       <c r="B4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\PROJECTS\varadsrivastava.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A713E53-5F8F-44BD-86C9-F865E31F045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027E0F0-AB6B-4BE7-B977-7EB002043135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F452221-23A1-4909-86B9-533D2F758014}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>title</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Got into the Cognitive Science Programme at IIT Delhi! Yay! (After not been able to go across interviews at IIT K and IIT Gn)</t>
-  </si>
-  <si>
-    <t>Did Internship at RTG Computational Cognition, Osnabruck, Germany. Advised by Dr. Viviane Clay (Dr. Peter König’s Group and Research Scientist at Numenta).</t>
   </si>
   <si>
     <t>2021_deeprl.png</t>
@@ -185,9 +182,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
     <t>Presented - 'ToM (Theory of Mind)-ML: Machine Learning predicts Mentalization'. Bernstein Conference 2021. Also Presented at Computational Cognition Workshop 2021 (Osnabrück, Germany)</t>
   </si>
   <si>
@@ -203,13 +197,16 @@
     <t>2023_waciis.jpg</t>
   </si>
   <si>
-    <t>Completed my Master's thesis at the Learning and Information in Networked Complex Systems (LINCS) Group, IIT Delhi</t>
-  </si>
-  <si>
     <t>Selected for the Technology Innovation Hub - Cobotics Fellowship!</t>
   </si>
   <si>
     <t>ihfc.PNG</t>
+  </si>
+  <si>
+    <t>Completed my Master's thesis at the Learning and Information in Networked Complex Systems (LINCS) Group, IIT Delhi. Investigated whether language models like RNNs are able to learn linguistic regularities as human cognition does.</t>
+  </si>
+  <si>
+    <t>Did Internship at RTG Computational Cognition, Osnabruck, Germany. Advised by Dr. Viviane Clay (Dr. Peter König’s Group and Research Scientist at Numenta). Worked on curiosity encodings in a Deep RL agent, which learns to explore the world as an infant does.</t>
   </si>
 </sst>
 </file>
@@ -566,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89999D4-6282-47E7-8C6A-FDFFE866297F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,13 +585,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +625,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -636,13 +633,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -654,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC824B-C161-4871-9A45-A2F3246DEF8B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,13 +681,13 @@
     </row>
     <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,13 +700,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +719,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,43 +740,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +933,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +976,7 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
